--- a/medicine/Sexualité et sexologie/Lahaie,_l'Amour_et_Vous/Lahaie,_l'Amour_et_Vous.xlsx
+++ b/medicine/Sexualité et sexologie/Lahaie,_l'Amour_et_Vous/Lahaie,_l'Amour_et_Vous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lahaie,_l%27Amour_et_Vous</t>
+          <t>Lahaie,_l'Amour_et_Vous</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lahaie, l'Amour et Vous est une émission radiophonique animée par Brigitte Lahaie et ses invités, diffusée sur RMC entre 2001 et 2016. Les thèmes abordés sont la sexualité et les relations amoureuses. Brigitte Lahaie s'appuie sur les témoignages de ses auditeurs et des spécialistes intervenant sur le plateau de la radio.
-En juillet 2016, Brigitte Lahaie annonce l'arrêt de l'émission[1], ne cachant pas qu'elle a été "remerciée" par la direction de RMC. Elle animera une émission similaire en septembre de la même année sur Sud Radio
+En juillet 2016, Brigitte Lahaie annonce l'arrêt de l'émission, ne cachant pas qu'elle a été "remerciée" par la direction de RMC. Elle animera une émission similaire en septembre de la même année sur Sud Radio
 </t>
         </is>
       </c>
